--- a/ControlCambios/03_Evaluacion_CCB/Aceptadas/EvalCCB_011.xlsx
+++ b/ControlCambios/03_Evaluacion_CCB/Aceptadas/EvalCCB_011.xlsx
@@ -90,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -188,6 +194,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -288,13 +301,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -510,181 +516,187 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,22 +1006,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="57" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="59" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="58" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="60" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1028,7 +1040,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="P1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
@@ -1046,451 +1058,451 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="P2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="7">
-        <v>45363</v>
-      </c>
-      <c r="J3" s="8"/>
+      <c r="I3" s="8">
+        <v>45365</v>
+      </c>
+      <c r="J3" s="9"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="P5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="P6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="17"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="P8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="16"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="P9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="17"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="16"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="P12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="P13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="16"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="P14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="16"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="P15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="16"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="17"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="P16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="P17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="P18" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="P19" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="P20" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="P21" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="P22" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="55"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
@@ -1508,7 +1520,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
@@ -1526,7 +1538,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
@@ -1544,7 +1556,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="P27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
@@ -1562,7 +1574,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="P28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
@@ -1580,7 +1592,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="P29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
@@ -1598,7 +1610,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="P30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
@@ -1616,7 +1628,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="56"/>
+      <c r="P31" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="20">
